--- a/natmiOut/OldD7/LR-pairs_lrc2p/Clcf1-Cntfr.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Clcf1-Cntfr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -74,6 +74,9 @@
   </si>
   <si>
     <t>Edge total expression derived specificity</t>
+  </si>
+  <si>
+    <t>ECs</t>
   </si>
   <si>
     <t>FAPs</t>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>2.64946081705008</v>
+        <v>0.6103310000000001</v>
       </c>
       <c r="H2">
-        <v>2.64946081705008</v>
+        <v>1.830993</v>
       </c>
       <c r="I2">
-        <v>0.2965964168927043</v>
+        <v>0.06059696746595619</v>
       </c>
       <c r="J2">
-        <v>0.2965964168927043</v>
+        <v>0.06059696746595618</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>8.31366932520258</v>
+        <v>0.05473433333333333</v>
       </c>
       <c r="N2">
-        <v>8.31366932520258</v>
+        <v>0.164203</v>
       </c>
       <c r="O2">
-        <v>0.9747063141825595</v>
+        <v>0.005873455178951466</v>
       </c>
       <c r="P2">
-        <v>0.9747063141825595</v>
+        <v>0.005873455178951466</v>
       </c>
       <c r="Q2">
-        <v>22.02674112303541</v>
+        <v>0.03340606039766666</v>
       </c>
       <c r="R2">
-        <v>22.02674112303541</v>
+        <v>0.300654543579</v>
       </c>
       <c r="S2">
-        <v>0.2890944003092417</v>
+        <v>0.0003559135723916739</v>
       </c>
       <c r="T2">
-        <v>0.2890944003092417</v>
+        <v>0.0003559135723916738</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,123 +584,123 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>2.64946081705008</v>
+        <v>0.6103310000000001</v>
       </c>
       <c r="H3">
-        <v>2.64946081705008</v>
+        <v>1.830993</v>
       </c>
       <c r="I3">
-        <v>0.2965964168927043</v>
+        <v>0.06059696746595619</v>
       </c>
       <c r="J3">
-        <v>0.2965964168927043</v>
+        <v>0.06059696746595618</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.215740204861729</v>
+        <v>8.501068666666667</v>
       </c>
       <c r="N3">
-        <v>0.215740204861729</v>
+        <v>25.503206</v>
       </c>
       <c r="O3">
-        <v>0.02529368581744044</v>
+        <v>0.912236301167251</v>
       </c>
       <c r="P3">
-        <v>0.02529368581744044</v>
+        <v>0.912236301167251</v>
       </c>
       <c r="Q3">
-        <v>0.5715952194435082</v>
+        <v>5.188465740395334</v>
       </c>
       <c r="R3">
-        <v>0.5715952194435082</v>
+        <v>46.696191663558</v>
       </c>
       <c r="S3">
-        <v>0.007502016583462649</v>
+        <v>0.05527875346309612</v>
       </c>
       <c r="T3">
-        <v>0.007502016583462649</v>
+        <v>0.05527875346309612</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" t="s">
-        <v>20</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>1.14781410441597</v>
+        <v>0.6103310000000001</v>
       </c>
       <c r="H4">
-        <v>1.14781410441597</v>
+        <v>1.830993</v>
       </c>
       <c r="I4">
-        <v>0.1284931441287475</v>
+        <v>0.06059696746595619</v>
       </c>
       <c r="J4">
-        <v>0.1284931441287475</v>
+        <v>0.06059696746595618</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>8.31366932520258</v>
+        <v>0.7631296666666666</v>
       </c>
       <c r="N4">
-        <v>8.31366932520258</v>
+        <v>2.289389</v>
       </c>
       <c r="O4">
-        <v>0.9747063141825595</v>
+        <v>0.08189024365379753</v>
       </c>
       <c r="P4">
-        <v>0.9747063141825595</v>
+        <v>0.08189024365379755</v>
       </c>
       <c r="Q4">
-        <v>9.542546910917922</v>
+        <v>0.4657616925863333</v>
       </c>
       <c r="R4">
-        <v>9.542546910917922</v>
+        <v>4.191855233277</v>
       </c>
       <c r="S4">
-        <v>0.1252430789114599</v>
+        <v>0.004962300430468395</v>
       </c>
       <c r="T4">
-        <v>0.1252430789114599</v>
+        <v>0.004962300430468395</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -705,185 +708,557 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.14781410441597</v>
+        <v>2.690388333333333</v>
       </c>
       <c r="H5">
-        <v>1.14781410441597</v>
+        <v>8.071165000000001</v>
       </c>
       <c r="I5">
-        <v>0.1284931441287475</v>
+        <v>0.2671163259047764</v>
       </c>
       <c r="J5">
-        <v>0.1284931441287475</v>
+        <v>0.2671163259047764</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.215740204861729</v>
+        <v>0.05473433333333333</v>
       </c>
       <c r="N5">
-        <v>0.215740204861729</v>
+        <v>0.164203</v>
       </c>
       <c r="O5">
-        <v>0.02529368581744044</v>
+        <v>0.005873455178951466</v>
       </c>
       <c r="P5">
-        <v>0.02529368581744044</v>
+        <v>0.005873455178951466</v>
       </c>
       <c r="Q5">
-        <v>0.2476296500298834</v>
+        <v>0.1472566118327778</v>
       </c>
       <c r="R5">
-        <v>0.2476296500298834</v>
+        <v>1.325309506495</v>
       </c>
       <c r="S5">
-        <v>0.003250065217287632</v>
+        <v>0.001568895767767897</v>
       </c>
       <c r="T5">
-        <v>0.003250065217287632</v>
+        <v>0.001568895767767897</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>5.13560715717531</v>
+        <v>2.690388333333333</v>
       </c>
       <c r="H6">
-        <v>5.13560715717531</v>
+        <v>8.071165000000001</v>
       </c>
       <c r="I6">
-        <v>0.5749104389785482</v>
+        <v>0.2671163259047764</v>
       </c>
       <c r="J6">
-        <v>0.5749104389785482</v>
+        <v>0.2671163259047764</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>8.31366932520258</v>
+        <v>8.501068666666667</v>
       </c>
       <c r="N6">
-        <v>8.31366932520258</v>
+        <v>25.503206</v>
       </c>
       <c r="O6">
-        <v>0.9747063141825595</v>
+        <v>0.912236301167251</v>
       </c>
       <c r="P6">
-        <v>0.9747063141825595</v>
+        <v>0.912236301167251</v>
       </c>
       <c r="Q6">
-        <v>42.6957396888992</v>
+        <v>22.87117596166556</v>
       </c>
       <c r="R6">
-        <v>42.6957396888992</v>
+        <v>205.84058365499</v>
       </c>
       <c r="S6">
-        <v>0.560368834961858</v>
+        <v>0.2436732091247592</v>
       </c>
       <c r="T6">
-        <v>0.560368834961858</v>
+        <v>0.2436732091247592</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>2.690388333333333</v>
+      </c>
+      <c r="H7">
+        <v>8.071165000000001</v>
+      </c>
+      <c r="I7">
+        <v>0.2671163259047764</v>
+      </c>
+      <c r="J7">
+        <v>0.2671163259047764</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>0.7631296666666666</v>
+      </c>
+      <c r="N7">
+        <v>2.289389</v>
+      </c>
+      <c r="O7">
+        <v>0.08189024365379753</v>
+      </c>
+      <c r="P7">
+        <v>0.08189024365379755</v>
+      </c>
+      <c r="Q7">
+        <v>2.053115152020555</v>
+      </c>
+      <c r="R7">
+        <v>18.478036368185</v>
+      </c>
+      <c r="S7">
+        <v>0.02187422101224933</v>
+      </c>
+      <c r="T7">
+        <v>0.02187422101224933</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
         <v>22</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1.24836</v>
+      </c>
+      <c r="H8">
+        <v>3.74508</v>
+      </c>
+      <c r="I8">
+        <v>0.1239439423948662</v>
+      </c>
+      <c r="J8">
+        <v>0.1239439423948662</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M8">
+        <v>0.05473433333333333</v>
+      </c>
+      <c r="N8">
+        <v>0.164203</v>
+      </c>
+      <c r="O8">
+        <v>0.005873455178951466</v>
+      </c>
+      <c r="P8">
+        <v>0.005873455178951466</v>
+      </c>
+      <c r="Q8">
+        <v>0.06832815235999999</v>
+      </c>
+      <c r="R8">
+        <v>0.6149533712399999</v>
+      </c>
+      <c r="S8">
+        <v>0.0007279791903587888</v>
+      </c>
+      <c r="T8">
+        <v>0.0007279791903587888</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1.24836</v>
+      </c>
+      <c r="H9">
+        <v>3.74508</v>
+      </c>
+      <c r="I9">
+        <v>0.1239439423948662</v>
+      </c>
+      <c r="J9">
+        <v>0.1239439423948662</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>8.501068666666667</v>
+      </c>
+      <c r="N9">
+        <v>25.503206</v>
+      </c>
+      <c r="O9">
+        <v>0.912236301167251</v>
+      </c>
+      <c r="P9">
+        <v>0.912236301167251</v>
+      </c>
+      <c r="Q9">
+        <v>10.61239408072</v>
+      </c>
+      <c r="R9">
+        <v>95.51154672647999</v>
+      </c>
+      <c r="S9">
+        <v>0.1130661635623795</v>
+      </c>
+      <c r="T9">
+        <v>0.1130661635623795</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1.24836</v>
+      </c>
+      <c r="H10">
+        <v>3.74508</v>
+      </c>
+      <c r="I10">
+        <v>0.1239439423948662</v>
+      </c>
+      <c r="J10">
+        <v>0.1239439423948662</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0.7631296666666666</v>
+      </c>
+      <c r="N10">
+        <v>2.289389</v>
+      </c>
+      <c r="O10">
+        <v>0.08189024365379753</v>
+      </c>
+      <c r="P10">
+        <v>0.08189024365379755</v>
+      </c>
+      <c r="Q10">
+        <v>0.9526605506799999</v>
+      </c>
+      <c r="R10">
+        <v>8.573944956119998</v>
+      </c>
+      <c r="S10">
+        <v>0.01014979964212783</v>
+      </c>
+      <c r="T10">
+        <v>0.01014979964212784</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
         <v>24</v>
       </c>
-      <c r="D7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>5.13560715717531</v>
-      </c>
-      <c r="H7">
-        <v>5.13560715717531</v>
-      </c>
-      <c r="I7">
-        <v>0.5749104389785482</v>
-      </c>
-      <c r="J7">
-        <v>0.5749104389785482</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>0.215740204861729</v>
-      </c>
-      <c r="N7">
-        <v>0.215740204861729</v>
-      </c>
-      <c r="O7">
-        <v>0.02529368581744044</v>
-      </c>
-      <c r="P7">
-        <v>0.02529368581744044</v>
-      </c>
-      <c r="Q7">
-        <v>1.107956940178363</v>
-      </c>
-      <c r="R7">
-        <v>1.107956940178363</v>
-      </c>
-      <c r="S7">
-        <v>0.01454160401669016</v>
-      </c>
-      <c r="T7">
-        <v>0.01454160401669016</v>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>5.522893333333333</v>
+      </c>
+      <c r="H11">
+        <v>16.56868</v>
+      </c>
+      <c r="I11">
+        <v>0.5483427642344012</v>
+      </c>
+      <c r="J11">
+        <v>0.5483427642344012</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M11">
+        <v>0.05473433333333333</v>
+      </c>
+      <c r="N11">
+        <v>0.164203</v>
+      </c>
+      <c r="O11">
+        <v>0.005873455178951466</v>
+      </c>
+      <c r="P11">
+        <v>0.005873455178951466</v>
+      </c>
+      <c r="Q11">
+        <v>0.3022918846711111</v>
+      </c>
+      <c r="R11">
+        <v>2.72062696204</v>
+      </c>
+      <c r="S11">
+        <v>0.003220666648433106</v>
+      </c>
+      <c r="T11">
+        <v>0.003220666648433106</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>5.522893333333333</v>
+      </c>
+      <c r="H12">
+        <v>16.56868</v>
+      </c>
+      <c r="I12">
+        <v>0.5483427642344012</v>
+      </c>
+      <c r="J12">
+        <v>0.5483427642344012</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>8.501068666666667</v>
+      </c>
+      <c r="N12">
+        <v>25.503206</v>
+      </c>
+      <c r="O12">
+        <v>0.912236301167251</v>
+      </c>
+      <c r="P12">
+        <v>0.912236301167251</v>
+      </c>
+      <c r="Q12">
+        <v>46.95049546534222</v>
+      </c>
+      <c r="R12">
+        <v>422.55445918808</v>
+      </c>
+      <c r="S12">
+        <v>0.5002181750170162</v>
+      </c>
+      <c r="T12">
+        <v>0.5002181750170162</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>5.522893333333333</v>
+      </c>
+      <c r="H13">
+        <v>16.56868</v>
+      </c>
+      <c r="I13">
+        <v>0.5483427642344012</v>
+      </c>
+      <c r="J13">
+        <v>0.5483427642344012</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.7631296666666666</v>
+      </c>
+      <c r="N13">
+        <v>2.289389</v>
+      </c>
+      <c r="O13">
+        <v>0.08189024365379753</v>
+      </c>
+      <c r="P13">
+        <v>0.08189024365379755</v>
+      </c>
+      <c r="Q13">
+        <v>4.214683748502222</v>
+      </c>
+      <c r="R13">
+        <v>37.93215373652</v>
+      </c>
+      <c r="S13">
+        <v>0.04490392256895197</v>
+      </c>
+      <c r="T13">
+        <v>0.04490392256895197</v>
       </c>
     </row>
   </sheetData>
